--- a/medicine/Psychotrope/Saint-maurice-sur-eygues_(côtes-du-rhône_villages)/Saint-maurice-sur-eygues_(côtes-du-rhône_villages).xlsx
+++ b/medicine/Psychotrope/Saint-maurice-sur-eygues_(côtes-du-rhône_villages)/Saint-maurice-sur-eygues_(côtes-du-rhône_villages).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saint-maurice-sur-eygues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Saint-maurice-sur-eygues_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Saint-maurice-sur-eygues[2], ou côtes-du-rhône villages Saint-Maurice-sur-Eygues, est un vin produit sur la commune de Saint-Maurice-sur-Eygues, dans le département de la Drôme.
+Saint-maurice-sur-eygues, ou côtes-du-rhône villages Saint-Maurice-sur-Eygues, est un vin produit sur la commune de Saint-Maurice-sur-Eygues, dans le département de la Drôme.
 Il s'agit d'une des dix-sept dénominations géographiques au sein de l'appellation d'origine contrôlée côtes-du-rhône villages, dans la partie méridionale du vignoble de la vallée du Rhône.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Saint-maurice-sur-eygues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Saint-maurice-sur-eygues_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,14 +527,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antiquité au Moyen Âge
-La colonisation romaine fut importante. Au cours du XIXe siècle, des fouilles ont mis au jour des poteries, des amphores, des vases, des pièces de monnaie, ainsi que des statues preuves de l'existence d’un habitat gallo-romain.
+          <t>Antiquité au Moyen Âge</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La colonisation romaine fut importante. Au cours du XIXe siècle, des fouilles ont mis au jour des poteries, des amphores, des vases, des pièces de monnaie, ainsi que des statues preuves de l'existence d’un habitat gallo-romain.
 Une pièce unique dans la vallée du Rhône est actuellement entreposée à la cave des vignerons de Saint-Maurice après le don fait par son propriétaire Camille Laugier. C'est un tonneau qui a été daté du XIIIe siècle. Cerclé et clavelé par des pièces de bois taillées à la main, il a servi de cuve de fermentation, sa partie sommitale ouverte permettant le foulage aux pieds. 
 Au cours du XIVe siècle, le vignoble avait pris une importance certaine puisqu'en 1333, une charte accorda des libertés aux villageois avec en contrepartie des droits féodaux à prendre sur la vigne et le vin.
-Période moderne
-La renommée de ce vignoble perdura puisqu'en 1713, le marquis de la Charce, gouverneur du Nyonsais, vantait les mérites de ses vins.
-Période contemporaine
-En 1953, le terroir de Saint-Maurice a été classé en côtes-du-rhône (AOC) puis en côtes-du-rhône villages avec nom de commune, en 1967.
 </t>
         </is>
       </c>
@@ -533,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Saint-maurice-sur-eygues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Saint-maurice-sur-eygues_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,10 +561,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Étymologie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Période moderne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La renommée de ce vignoble perdura puisqu'en 1713, le marquis de la Charce, gouverneur du Nyonsais, vantait les mérites de ses vins.
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Saint-maurice-sur-eygues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Saint-maurice-sur-eygues_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,135 +598,452 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1953, le terroir de Saint-Maurice a été classé en côtes-du-rhône (AOC) puis en côtes-du-rhône villages avec nom de commune, en 1967.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Saint-maurice-sur-eygues_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-maurice-sur-eygues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Saint-maurice-sur-eygues_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-maurice-sur-eygues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ce terroir viticole situé en plein cœur de la Drôme Provencale, est à quelques kilomètres de Nyons (12 km), Valréas (18 km) et Vaison-la-Romaine (16 km).
-Orographie
-Géologie
-Climatologie
-Ce terroir est situé dans la zone d’influence du climat méditerranéen. Les étés sont chauds et secs, liés à la remontée en latitude des anticyclones subtropicaux, entrecoupés d’épisodes orageux parfois violents. Cependant, l'enclave étant située au nord de la région PACA, quasiment à la limite Nord de la culture de l'olivier, certains préfèrent parler d'un climat méditerranéen à influence continentale. Le froid de l'hiver est donc plus important qu'au sud du département. La neige et la glace se voient souvent et le gel au printemps est redouté des vignerons et des paysans[3]. Le climat de ce terroir est soumis à un rythme à quatre temps : deux saisons sèches (une brève en hiver, une très longue et accentuée en été), deux saisons pluvieuses, en automne (pluies abondantes et brutales) et au printemps[3]. Sa spécificité est son climat méditerranéen qui constitue un atout exceptionnel :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce terroir viticole situé en plein cœur de la Drôme Provencale, est à quelques kilomètres de Nyons (12 km), Valréas (18 km) et Vaison-la-Romaine (16 km).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Saint-maurice-sur-eygues_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-maurice-sur-eygues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ce terroir est situé dans la zone d’influence du climat méditerranéen. Les étés sont chauds et secs, liés à la remontée en latitude des anticyclones subtropicaux, entrecoupés d’épisodes orageux parfois violents. Cependant, l'enclave étant située au nord de la région PACA, quasiment à la limite Nord de la culture de l'olivier, certains préfèrent parler d'un climat méditerranéen à influence continentale. Le froid de l'hiver est donc plus important qu'au sud du département. La neige et la glace se voient souvent et le gel au printemps est redouté des vignerons et des paysans. Le climat de ce terroir est soumis à un rythme à quatre temps : deux saisons sèches (une brève en hiver, une très longue et accentuée en été), deux saisons pluvieuses, en automne (pluies abondantes et brutales) et au printemps. Sa spécificité est son climat méditerranéen qui constitue un atout exceptionnel :
 Le mistral assainit le vignoble ;
 La saisonnalité des pluies est très marquée ;
 Les températures sont très chaudes pendant l'été.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Saint-maurice-sur-eygues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Saint-maurice-sur-eygues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Saint-maurice-sur-eygues_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-maurice-sur-eygues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présentation
-Le vignoble s'étend sur la commune de Saint-Maurice-sur-Eygues.
-Encépagement
-Les rouges sont principalement fait à partir du grenache N, complété par de la syrah N, du mourvèdre N et accessoirement du brun argenté N (localement dénommé camarèse ou vaccarèse), du carignan N, du cinsaut N, de la counoise N, du muscardin N, du piquepoul noir N et du terret noir N.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble s'étend sur la commune de Saint-Maurice-sur-Eygues.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Saint-maurice-sur-eygues_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-maurice-sur-eygues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rouges sont principalement fait à partir du grenache N, complété par de la syrah N, du mourvèdre N et accessoirement du brun argenté N (localement dénommé camarèse ou vaccarèse), du carignan N, du cinsaut N, de la counoise N, du muscardin N, du piquepoul noir N et du terret noir N.
 Les blancs sont principalement fait avec du grenache blanc B, de la clairette B, de la Marsanne B, de la roussanne B, du bourboulenc B et du viognier B, complétés accessoirement par du piquepoul blanc B et de l'ugni blanc B.
-Méthodes culturales
-Le vignoble s'étend sur 136 hectares et produit annuellement 4 982 hectolitres avec une rendement de 37 hl/ha.
-Terroir et vins
-Les millésimes
-Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Saint-maurice-sur-eygues_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-maurice-sur-eygues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Méthodes culturales</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble s'étend sur 136 hectares et produit annuellement 4 982 hectolitres avec une rendement de 37 hl/ha.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Saint-maurice-sur-eygues_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-maurice-sur-eygues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Les millésimes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
 Soit sur 90 ans, 24 années exceptionnelles, 26 grandes années, 16 bonnes années, 22 années moyennes et 2 années médiocres.
-Structure des exploitations
-Type de vins et gastronomie
-Le rouge est recommandé dans l'accompagnement des viandes rouges, du gibier ou de fromages de caractère. Il est conseillé de le déguster à une température de 16 à 18 °C et se garde entre 3 et 8 ans. Les vins rosés accompagnent agréablement de la charcuterie et des poissons, se garde 1 à 2 ans et se servent entre 10 et 12 degrés. Les vins blancs s'accordent bien avec des poissons et peuvent être servi en apéritif. Leur température de service se situe entre 13 et 14 degrés, leur durée de garde est de 1 à 2 ans.
-Commercialisation
-Le syndicat des vignerons de l'appellation est représenté au sein de la Commanderie des Costes du Rhône, confrérie vigneronne, qui tient ses assises au château de Suze-la-Rousse, siège de l'Université du vin.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Saint-maurice-sur-eygues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Saint-maurice-sur-eygues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Saint-maurice-sur-eygues_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-maurice-sur-eygues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Type de vins et gastronomie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rouge est recommandé dans l'accompagnement des viandes rouges, du gibier ou de fromages de caractère. Il est conseillé de le déguster à une température de 16 à 18 °C et se garde entre 3 et 8 ans. Les vins rosés accompagnent agréablement de la charcuterie et des poissons, se garde 1 à 2 ans et se servent entre 10 et 12 degrés. Les vins blancs s'accordent bien avec des poissons et peuvent être servi en apéritif. Leur température de service se situe entre 13 et 14 degrés, leur durée de garde est de 1 à 2 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Saint-maurice-sur-eygues_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-maurice-sur-eygues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Commercialisation</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndicat des vignerons de l'appellation est représenté au sein de la Commanderie des Costes du Rhône, confrérie vigneronne, qui tient ses assises au château de Suze-la-Rousse, siège de l'Université du vin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Saint-maurice-sur-eygues_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-maurice-sur-eygues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Les principaux producteurs de l'appellation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Bouteilles de saint-maurice-sur-eygues au Palais du vin
 			Saint-maurice-sur-eygues rouge, Grande Réserve
-Caveaux de dégustation
-Une charte de qualité, à laquelle adhèrent caves et domaines de Saint-Maurice-sur-Eygues, a été mise en place dans la vallée du Rhône par Inter Rhône[4]. Elle propose trois catégories différentes d'accueil en fonction des prestations offertes par les professionnels[5].
-La première - dite accueil de qualité - définit les conditions de cet accueil. Un panneau à l'entrée doit signaler que celui-ci est adhérent à la charte. Ce qui exige que ses abords soient en parfait état et entretenus et qu'il dispose d'un parking proche. L'intérieur du caveau doit disposer d'un sanitaire et d'un point d'eau, les visiteurs peuvent s'asseoir et ils ont de plus l'assurance que locaux et ensemble du matériel utilisé sont d'une propreté irréprochable (sols, table de dégustation, crachoirs, verres)[4].
-L'achat de vin à l'issue de la dégustation n'est jamais obligatoire. Celle-ci s'est faite dans des verres de qualité (minimum INAO). Les vins ont été servis à température idéale et les enfants se sont vu proposer des jus de fruits ou des jus de raisin. Outre l'affichage de ses horaires et des permanences, le caveau dispose de fiches techniques sur les vins, affiche les prix et offre des brochures touristiques sur l'appellation[4]. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Saint-maurice-sur-eygues_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-maurice-sur-eygues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Les principaux producteurs de l'appellation</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Caveaux de dégustation</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une charte de qualité, à laquelle adhèrent caves et domaines de Saint-Maurice-sur-Eygues, a été mise en place dans la vallée du Rhône par Inter Rhône. Elle propose trois catégories différentes d'accueil en fonction des prestations offertes par les professionnels.
+La première - dite accueil de qualité - définit les conditions de cet accueil. Un panneau à l'entrée doit signaler que celui-ci est adhérent à la charte. Ce qui exige que ses abords soient en parfait état et entretenus et qu'il dispose d'un parking proche. L'intérieur du caveau doit disposer d'un sanitaire et d'un point d'eau, les visiteurs peuvent s'asseoir et ils ont de plus l'assurance que locaux et ensemble du matériel utilisé sont d'une propreté irréprochable (sols, table de dégustation, crachoirs, verres).
+L'achat de vin à l'issue de la dégustation n'est jamais obligatoire. Celle-ci s'est faite dans des verres de qualité (minimum INAO). Les vins ont été servis à température idéale et les enfants se sont vu proposer des jus de fruits ou des jus de raisin. Outre l'affichage de ses horaires et des permanences, le caveau dispose de fiches techniques sur les vins, affiche les prix et offre des brochures touristiques sur l'appellation. 
 Caveaux à Saint-Maurice-sur-Eygues
-La seconde - dite accueil de service - précise que le caveau est ouvert cinq jours sur sept toute l'année et six jours sur sept de juin à septembre. La dégustation se fait dans des verres cristallins voire en cristal. Accessible aux personnes à mobilité réduite, il est chauffé l'hiver et frais l'été, de plus il dispose d'un éclairage satisfaisant (néons interdits). Sa décoration est en relation avec la vigne et le vin, une carte de l'appellation est affichée. Il dispose d'un site internet et fournit à sa clientèle des informations sur la gastronomie et les produits agroalimentaires locaux, les lieux touristiques et les autres caveaux adhérant à la charte. Des plus les fiches techniques sur les vins proposés sont disponibles en anglais[6]
+La seconde - dite accueil de service - précise que le caveau est ouvert cinq jours sur sept toute l'année et six jours sur sept de juin à septembre. La dégustation se fait dans des verres cristallins voire en cristal. Accessible aux personnes à mobilité réduite, il est chauffé l'hiver et frais l'été, de plus il dispose d'un éclairage satisfaisant (néons interdits). Sa décoration est en relation avec la vigne et le vin, une carte de l'appellation est affichée. Il dispose d'un site internet et fournit à sa clientèle des informations sur la gastronomie et les produits agroalimentaires locaux, les lieux touristiques et les autres caveaux adhérant à la charte. Des plus les fiches techniques sur les vins proposés sont disponibles en anglais
 Caveaux à Saint-Maurice-sur-Eygues
-La troisième - dite accueil d'excellence - propose d'autres services dont la mise en relation avec d'autres caveaux, la réservation de restaurants ou d'hébergements. Le caveau assure l'expédition en France pour un minimum de vingt-quatre bouteilles. Il dispose d'un site Internet en version anglaise et le personnel d'accueil parle au moins l'anglais[7].
+La troisième - dite accueil d'excellence - propose d'autres services dont la mise en relation avec d'autres caveaux, la réservation de restaurants ou d'hébergements. Le caveau assure l'expédition en France pour un minimum de vingt-quatre bouteilles. Il dispose d'un site Internet en version anglaise et le personnel d'accueil parle au moins l'anglais.
 Caveaux à Saint-Maurice-sur-Eygues
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Saint-maurice-sur-eygues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Saint-maurice-sur-eygues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Saint-maurice-sur-eygues_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-maurice-sur-eygues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>La place de Saint-Maurice parmi les côtes-du-rhône villages</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
